--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="336">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>
@@ -663,6 +663,12 @@
   </si>
   <si>
     <t xml:space="preserve">妹猫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">悪魔</t>
   </si>
   <si>
     <t xml:space="preserve">servant</t>
@@ -1128,10 +1134,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1140,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1154,10 +1160,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1166,7 +1172,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1180,10 +1186,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1192,7 +1198,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -1206,10 +1212,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -1218,7 +1224,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1232,10 +1238,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -1244,7 +1250,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
@@ -1258,10 +1264,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -1270,7 +1276,7 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -1284,10 +1290,10 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -1296,7 +1302,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -1310,10 +1316,10 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -1322,7 +1328,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -1336,10 +1342,10 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -1348,7 +1354,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1362,10 +1368,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -1374,7 +1380,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -1388,10 +1394,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -1400,7 +1406,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1414,10 +1420,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -1426,7 +1432,7 @@
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
@@ -1440,10 +1446,10 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -1452,7 +1458,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G15" t="s">
         <v>61</v>
@@ -1466,10 +1472,10 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
@@ -1478,7 +1484,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G16" t="s">
         <v>65</v>
@@ -1492,10 +1498,10 @@
         <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D17" t="s">
         <v>67</v>
@@ -1504,7 +1510,7 @@
         <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G17" t="s">
         <v>69</v>
@@ -1518,10 +1524,10 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D18" t="s">
         <v>71</v>
@@ -1530,7 +1536,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
@@ -1544,10 +1550,10 @@
         <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
@@ -1556,7 +1562,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G19" t="s">
         <v>78</v>
@@ -1570,10 +1576,10 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -1589,10 +1595,10 @@
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D21" t="s">
         <v>83</v>
@@ -1608,10 +1614,10 @@
         <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D22" t="s">
         <v>85</v>
@@ -1627,10 +1633,10 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D23" t="s">
         <v>87</v>
@@ -1646,10 +1652,10 @@
         <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D24" t="s">
         <v>89</v>
@@ -1665,10 +1671,10 @@
         <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D25" t="s">
         <v>91</v>
@@ -1684,10 +1690,10 @@
         <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D26" t="s">
         <v>93</v>
@@ -1703,10 +1709,10 @@
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
@@ -1722,10 +1728,10 @@
         <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C28" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -1741,10 +1747,10 @@
         <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
         <v>99</v>
@@ -1760,10 +1766,10 @@
         <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C30" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D30" t="s">
         <v>101</v>
@@ -1779,10 +1785,10 @@
         <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C31" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D31" t="s">
         <v>103</v>
@@ -1798,10 +1804,10 @@
         <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
         <v>105</v>
@@ -1817,10 +1823,10 @@
         <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D33" t="s">
         <v>107</v>
@@ -1836,10 +1842,10 @@
         <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C34" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D34" t="s">
         <v>109</v>
@@ -1855,10 +1861,10 @@
         <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D35" t="s">
         <v>111</v>
@@ -1874,10 +1880,10 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C36" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D36" t="s">
         <v>113</v>
@@ -1893,10 +1899,10 @@
         <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D37" t="s">
         <v>115</v>
@@ -1912,10 +1918,10 @@
         <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D38" t="s">
         <v>117</v>
@@ -1931,10 +1937,10 @@
         <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D39" t="s">
         <v>119</v>
@@ -1950,10 +1956,10 @@
         <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D40" t="s">
         <v>121</v>
@@ -1969,10 +1975,10 @@
         <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C41" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D41" t="s">
         <v>123</v>
@@ -1988,10 +1994,10 @@
         <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D42" t="s">
         <v>125</v>
@@ -2007,10 +2013,10 @@
         <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -2026,10 +2032,10 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C44" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D44" t="s">
         <v>129</v>
@@ -2045,10 +2051,10 @@
         <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C45" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D45" t="s">
         <v>131</v>
@@ -2064,10 +2070,10 @@
         <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C46" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D46" t="s">
         <v>133</v>
@@ -2083,10 +2089,10 @@
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C47" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D47" t="s">
         <v>135</v>
@@ -2102,10 +2108,10 @@
         <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C48" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D48" t="s">
         <v>137</v>
@@ -2121,10 +2127,10 @@
         <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C49" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D49" t="s">
         <v>139</v>
@@ -2140,10 +2146,10 @@
         <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C50" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D50" t="s">
         <v>141</v>
@@ -2159,10 +2165,10 @@
         <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C51" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D51" t="s">
         <v>143</v>
@@ -2178,10 +2184,10 @@
         <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C52" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D52" t="s">
         <v>145</v>
@@ -2197,10 +2203,10 @@
         <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D53" t="s">
         <v>147</v>
@@ -2216,10 +2222,10 @@
         <v>149</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C54" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D54" t="s">
         <v>149</v>
@@ -2235,10 +2241,10 @@
         <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C55" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D55" t="s">
         <v>151</v>
@@ -2254,10 +2260,10 @@
         <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D56" t="s">
         <v>153</v>
@@ -2273,10 +2279,10 @@
         <v>155</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D57" t="s">
         <v>155</v>
@@ -2292,10 +2298,10 @@
         <v>157</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D58" t="s">
         <v>157</v>
@@ -2311,10 +2317,10 @@
         <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D59" t="s">
         <v>159</v>
@@ -2330,10 +2336,10 @@
         <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C60" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D60" t="s">
         <v>161</v>
@@ -2349,10 +2355,10 @@
         <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C61" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D61" t="s">
         <v>163</v>
@@ -2368,10 +2374,10 @@
         <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D62" t="s">
         <v>165</v>
@@ -2387,10 +2393,10 @@
         <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C63" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D63" t="s">
         <v>167</v>
@@ -2406,10 +2412,10 @@
         <v>169</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D64" t="s">
         <v>169</v>
@@ -2425,10 +2431,10 @@
         <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D65" t="s">
         <v>171</v>
@@ -2444,10 +2450,10 @@
         <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D66" t="s">
         <v>173</v>
@@ -2463,10 +2469,10 @@
         <v>175</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D67" t="s">
         <v>175</v>
@@ -2482,10 +2488,10 @@
         <v>177</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C68" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D68" t="s">
         <v>177</v>
@@ -2501,10 +2507,10 @@
         <v>179</v>
       </c>
       <c r="B69" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C69" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D69" t="s">
         <v>179</v>
@@ -2520,10 +2526,10 @@
         <v>181</v>
       </c>
       <c r="B70" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C70" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D70" t="s">
         <v>181</v>
@@ -2539,10 +2545,10 @@
         <v>183</v>
       </c>
       <c r="B71" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D71" t="s">
         <v>183</v>
@@ -2558,10 +2564,10 @@
         <v>185</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D72" t="s">
         <v>185</v>
@@ -2577,10 +2583,10 @@
         <v>187</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D73" t="s">
         <v>187</v>
@@ -2596,10 +2602,10 @@
         <v>189</v>
       </c>
       <c r="B74" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D74" t="s">
         <v>189</v>
@@ -2615,10 +2621,10 @@
         <v>191</v>
       </c>
       <c r="B75" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D75" t="s">
         <v>191</v>
@@ -2634,10 +2640,10 @@
         <v>193</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C76" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D76" t="s">
         <v>193</v>
@@ -2653,10 +2659,10 @@
         <v>195</v>
       </c>
       <c r="B77" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C77" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D77" t="s">
         <v>195</v>
@@ -2672,10 +2678,10 @@
         <v>197</v>
       </c>
       <c r="B78" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C78" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D78" t="s">
         <v>197</v>
@@ -2691,10 +2697,10 @@
         <v>199</v>
       </c>
       <c r="B79" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C79" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D79" t="s">
         <v>199</v>
@@ -2710,10 +2716,10 @@
         <v>201</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C80" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D80" t="s">
         <v>201</v>
@@ -2729,10 +2735,10 @@
         <v>203</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C81" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D81" t="s">
         <v>203</v>
@@ -2748,10 +2754,10 @@
         <v>205</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C82" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D82" t="s">
         <v>206</v>
@@ -2767,10 +2773,10 @@
         <v>208</v>
       </c>
       <c r="B83" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C83" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D83" t="s">
         <v>208</v>
@@ -2786,10 +2792,10 @@
         <v>210</v>
       </c>
       <c r="B84" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C84" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D84" t="s">
         <v>210</v>
@@ -2805,10 +2811,10 @@
         <v>212</v>
       </c>
       <c r="B85" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C85" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D85" t="s">
         <v>212</v>
@@ -2824,10 +2830,10 @@
         <v>214</v>
       </c>
       <c r="B86" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C86" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D86" t="s">
         <v>214</v>
@@ -2843,29 +2849,26 @@
         <v>216</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
-      </c>
-      <c r="C87" t="s">
-        <v>315</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
+        <v>216</v>
+      </c>
+      <c r="E87" t="s">
         <v>217</v>
-      </c>
-      <c r="E87" t="s">
-        <v>218</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B88" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C88" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D88" t="s">
         <v>219</v>
@@ -2875,6 +2878,25 @@
       </c>
       <c r="G88"/>
       <c r="H88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" t="s">
+        <v>318</v>
+      </c>
+      <c r="D89" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" t="s">
+        <v>222</v>
+      </c>
+      <c r="G89"/>
+      <c r="H89"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="340">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>
@@ -600,6 +600,12 @@
   </si>
   <si>
     <t xml:space="preserve">イス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">octopus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タコ</t>
   </si>
   <si>
     <t xml:space="preserve">horse</t>
@@ -1140,10 +1146,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1152,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1166,10 +1172,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1178,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1192,10 +1198,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1204,7 +1210,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -1218,10 +1224,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -1230,7 +1236,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1244,10 +1250,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -1256,7 +1262,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
@@ -1270,10 +1276,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -1282,7 +1288,7 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -1296,10 +1302,10 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -1308,7 +1314,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -1322,10 +1328,10 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -1334,7 +1340,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -1348,10 +1354,10 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -1360,7 +1366,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1374,10 +1380,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -1386,7 +1392,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -1400,10 +1406,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -1412,7 +1418,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1426,10 +1432,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -1438,7 +1444,7 @@
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
@@ -1452,10 +1458,10 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -1464,7 +1470,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G15" t="s">
         <v>61</v>
@@ -1478,10 +1484,10 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
@@ -1490,7 +1496,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G16" t="s">
         <v>65</v>
@@ -1504,10 +1510,10 @@
         <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C17" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D17" t="s">
         <v>67</v>
@@ -1516,7 +1522,7 @@
         <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G17" t="s">
         <v>69</v>
@@ -1530,10 +1536,10 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D18" t="s">
         <v>71</v>
@@ -1542,7 +1548,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
@@ -1556,10 +1562,10 @@
         <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
@@ -1568,7 +1574,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G19" t="s">
         <v>78</v>
@@ -1582,10 +1588,10 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -1601,10 +1607,10 @@
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D21" t="s">
         <v>83</v>
@@ -1620,10 +1626,10 @@
         <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D22" t="s">
         <v>85</v>
@@ -1639,10 +1645,10 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D23" t="s">
         <v>87</v>
@@ -1658,10 +1664,10 @@
         <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D24" t="s">
         <v>89</v>
@@ -1677,10 +1683,10 @@
         <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D25" t="s">
         <v>91</v>
@@ -1696,10 +1702,10 @@
         <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D26" t="s">
         <v>93</v>
@@ -1715,10 +1721,10 @@
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
@@ -1734,10 +1740,10 @@
         <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C28" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -1753,10 +1759,10 @@
         <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D29" t="s">
         <v>99</v>
@@ -1772,10 +1778,10 @@
         <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D30" t="s">
         <v>101</v>
@@ -1791,10 +1797,10 @@
         <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D31" t="s">
         <v>103</v>
@@ -1810,10 +1816,10 @@
         <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D32" t="s">
         <v>105</v>
@@ -1829,10 +1835,10 @@
         <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D33" t="s">
         <v>107</v>
@@ -1848,10 +1854,10 @@
         <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C34" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D34" t="s">
         <v>109</v>
@@ -1867,10 +1873,10 @@
         <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C35" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D35" t="s">
         <v>111</v>
@@ -1886,10 +1892,10 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D36" t="s">
         <v>113</v>
@@ -1905,10 +1911,10 @@
         <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C37" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D37" t="s">
         <v>115</v>
@@ -1924,10 +1930,10 @@
         <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D38" t="s">
         <v>117</v>
@@ -1943,10 +1949,10 @@
         <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D39" t="s">
         <v>119</v>
@@ -1962,10 +1968,10 @@
         <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C40" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D40" t="s">
         <v>121</v>
@@ -1981,10 +1987,10 @@
         <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C41" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D41" t="s">
         <v>123</v>
@@ -2000,10 +2006,10 @@
         <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D42" t="s">
         <v>125</v>
@@ -2019,10 +2025,10 @@
         <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C43" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D43" t="s">
         <v>127</v>
@@ -2038,10 +2044,10 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D44" t="s">
         <v>129</v>
@@ -2057,10 +2063,10 @@
         <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C45" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D45" t="s">
         <v>131</v>
@@ -2076,10 +2082,10 @@
         <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D46" t="s">
         <v>133</v>
@@ -2095,10 +2101,10 @@
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D47" t="s">
         <v>135</v>
@@ -2114,10 +2120,10 @@
         <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D48" t="s">
         <v>137</v>
@@ -2133,10 +2139,10 @@
         <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D49" t="s">
         <v>139</v>
@@ -2152,10 +2158,10 @@
         <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D50" t="s">
         <v>141</v>
@@ -2171,10 +2177,10 @@
         <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C51" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D51" t="s">
         <v>143</v>
@@ -2190,10 +2196,10 @@
         <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C52" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D52" t="s">
         <v>145</v>
@@ -2209,10 +2215,10 @@
         <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C53" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D53" t="s">
         <v>147</v>
@@ -2228,10 +2234,10 @@
         <v>149</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D54" t="s">
         <v>149</v>
@@ -2247,10 +2253,10 @@
         <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D55" t="s">
         <v>151</v>
@@ -2266,10 +2272,10 @@
         <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D56" t="s">
         <v>153</v>
@@ -2285,10 +2291,10 @@
         <v>155</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D57" t="s">
         <v>155</v>
@@ -2304,10 +2310,10 @@
         <v>157</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C58" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D58" t="s">
         <v>157</v>
@@ -2323,10 +2329,10 @@
         <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C59" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D59" t="s">
         <v>159</v>
@@ -2342,10 +2348,10 @@
         <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D60" t="s">
         <v>161</v>
@@ -2361,10 +2367,10 @@
         <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C61" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D61" t="s">
         <v>163</v>
@@ -2380,10 +2386,10 @@
         <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D62" t="s">
         <v>165</v>
@@ -2399,10 +2405,10 @@
         <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C63" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D63" t="s">
         <v>167</v>
@@ -2418,10 +2424,10 @@
         <v>169</v>
       </c>
       <c r="B64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C64" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D64" t="s">
         <v>169</v>
@@ -2437,10 +2443,10 @@
         <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C65" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D65" t="s">
         <v>171</v>
@@ -2456,10 +2462,10 @@
         <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C66" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D66" t="s">
         <v>173</v>
@@ -2475,10 +2481,10 @@
         <v>175</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D67" t="s">
         <v>175</v>
@@ -2494,10 +2500,10 @@
         <v>177</v>
       </c>
       <c r="B68" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C68" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D68" t="s">
         <v>177</v>
@@ -2513,10 +2519,10 @@
         <v>179</v>
       </c>
       <c r="B69" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D69" t="s">
         <v>179</v>
@@ -2532,10 +2538,10 @@
         <v>181</v>
       </c>
       <c r="B70" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C70" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D70" t="s">
         <v>181</v>
@@ -2551,10 +2557,10 @@
         <v>183</v>
       </c>
       <c r="B71" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C71" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D71" t="s">
         <v>183</v>
@@ -2570,10 +2576,10 @@
         <v>185</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C72" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D72" t="s">
         <v>185</v>
@@ -2589,10 +2595,10 @@
         <v>187</v>
       </c>
       <c r="B73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C73" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D73" t="s">
         <v>187</v>
@@ -2608,10 +2614,10 @@
         <v>189</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C74" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D74" t="s">
         <v>189</v>
@@ -2627,10 +2633,10 @@
         <v>191</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C75" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D75" t="s">
         <v>191</v>
@@ -2646,10 +2652,10 @@
         <v>193</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C76" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D76" t="s">
         <v>193</v>
@@ -2665,10 +2671,7 @@
         <v>195</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
-      </c>
-      <c r="C77" t="s">
-        <v>308</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
         <v>195</v>
@@ -2684,10 +2687,10 @@
         <v>197</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D78" t="s">
         <v>197</v>
@@ -2703,10 +2706,10 @@
         <v>199</v>
       </c>
       <c r="B79" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C79" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D79" t="s">
         <v>199</v>
@@ -2722,10 +2725,10 @@
         <v>201</v>
       </c>
       <c r="B80" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C80" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D80" t="s">
         <v>201</v>
@@ -2741,10 +2744,10 @@
         <v>203</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C81" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D81" t="s">
         <v>203</v>
@@ -2760,29 +2763,29 @@
         <v>205</v>
       </c>
       <c r="B82" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C82" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D82" t="s">
+        <v>205</v>
+      </c>
+      <c r="E82" t="s">
         <v>206</v>
-      </c>
-      <c r="E82" t="s">
-        <v>207</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C83" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D83" t="s">
         <v>208</v>
@@ -2798,10 +2801,10 @@
         <v>210</v>
       </c>
       <c r="B84" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C84" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D84" t="s">
         <v>210</v>
@@ -2817,10 +2820,10 @@
         <v>212</v>
       </c>
       <c r="B85" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C85" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D85" t="s">
         <v>212</v>
@@ -2836,10 +2839,10 @@
         <v>214</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C86" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D86" t="s">
         <v>214</v>
@@ -2855,10 +2858,10 @@
         <v>216</v>
       </c>
       <c r="B87" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D87" t="s">
         <v>216</v>
@@ -2874,29 +2877,29 @@
         <v>218</v>
       </c>
       <c r="B88" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D88" t="s">
+        <v>218</v>
+      </c>
+      <c r="E88" t="s">
         <v>219</v>
-      </c>
-      <c r="E88" t="s">
-        <v>220</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B89" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C89" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D89" t="s">
         <v>221</v>
@@ -2906,6 +2909,25 @@
       </c>
       <c r="G89"/>
       <c r="H89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>223</v>
+      </c>
+      <c r="B90" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" t="s">
+        <v>322</v>
+      </c>
+      <c r="D90" t="s">
+        <v>223</v>
+      </c>
+      <c r="E90" t="s">
+        <v>224</v>
+      </c>
+      <c r="G90"/>
+      <c r="H90"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="346">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t xml:space="preserve">半神は地上に降り立った神の化身が人間と交わった結果生まれた子供たちです。その多くは神々の戯れの産物であり、彼らが自身の出自や特異な能力に気づくことは稀です。彼らは神の造形がごとく美しく、均整の取れた能力を持ち、強い生命力とマナを備えています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ケンタウロス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centaurs are a half-human, half-beast race who embody both a powerful physique and wisdom. Their noble figures, galloping across the wilderness and battlefield alike, have been celebrated in countless tales. Though averse to sorcery, they more than make up for it with their mastery of archery. Among them, rare individuals awaken to the “Seventh Sense,” a gift that grants abilities far beyond ordinary beings, and their arrows are said to never miss their mark.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ケンタウロスは、強靭な肉体と叡智を併せ持つ半人半獣族です。荒野や戦場を駆け抜けるその高貴な姿は、古来より多くの英雄譚に語られています。彼らは魔術を苦手としていますが、それを補って余りあるほどの射撃術を誇ります。彼らの中には、稀に「第七感」に目覚める者が現れるとされ、それにより解き放たれる能力は常人をはるかに凌ぎ、矢は必ず標的を捉えると言われています。</t>
   </si>
   <si>
     <t xml:space="preserve">shiba</t>
@@ -1152,10 +1164,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1164,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1178,10 +1190,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1190,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1204,10 +1216,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1216,7 +1228,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -1230,10 +1242,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -1242,7 +1254,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1256,10 +1268,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -1268,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
@@ -1282,10 +1294,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -1294,7 +1306,7 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -1308,10 +1320,10 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -1320,7 +1332,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -1334,10 +1346,10 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -1346,7 +1358,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -1360,10 +1372,10 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -1372,7 +1384,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1386,10 +1398,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -1398,7 +1410,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -1412,10 +1424,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -1424,7 +1436,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1438,10 +1450,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -1450,7 +1462,7 @@
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
@@ -1464,10 +1476,10 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -1476,7 +1488,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G15" t="s">
         <v>61</v>
@@ -1490,10 +1502,10 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
@@ -1502,7 +1514,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G16" t="s">
         <v>65</v>
@@ -1516,10 +1528,10 @@
         <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
         <v>67</v>
@@ -1528,7 +1540,7 @@
         <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G17" t="s">
         <v>69</v>
@@ -1542,19 +1554,13 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
         <v>71</v>
       </c>
       <c r="E18" t="s">
         <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>340</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
@@ -1568,36 +1574,36 @@
         <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>344</v>
+      </c>
+      <c r="G19" t="s">
         <v>77</v>
       </c>
-      <c r="F19" t="s">
-        <v>341</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>78</v>
-      </c>
-      <c r="H19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -1605,1338 +1611,1364 @@
       <c r="E20" t="s">
         <v>81</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
+      <c r="F20" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C23" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C24" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C25" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C30" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C32" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C33" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C34" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C37" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C39" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C41" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C42" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C44" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C45" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C46" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C47" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C48" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C49" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C50" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C51" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C52" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C53" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C54" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C55" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C56" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C57" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E57" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C58" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C59" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E59" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C60" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C61" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E61" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D63" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C64" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C65" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D65" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E65" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C66" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E66" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B67" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C67" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D67" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E67" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C68" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D68" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C69" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E69" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C70" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B71" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C71" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E71" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B72" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C72" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E72" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B73" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C73" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D73" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C74" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E74" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B75" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C75" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E75" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C76" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E76" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B77" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C77" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E77" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C78" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C79" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D79" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E79" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C80" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D80" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E80" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B81" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C81" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E81" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C82" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D82" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E82" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C83" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D83" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C84" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D84" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E84" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C85" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D85" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E85" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B86" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C86" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E86" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B87" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C87" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D87" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E87" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C88" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D88" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E88" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B89" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C89" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B90" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C90" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D90" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E90" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" t="s">
+        <v>240</v>
+      </c>
+      <c r="C91" t="s">
+        <v>328</v>
+      </c>
+      <c r="D91" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" t="s">
+        <v>228</v>
+      </c>
+      <c r="G91"/>
+      <c r="H91"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/Mod_Korean/Lang/KR/Game/Race.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Race.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="351">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t xml:space="preserve">月夜の眷属、ルナーという別名でも知られるサキュバスは、月の美しい夜に枕元に現れ、人々を誘惑すると言い伝えられています。実際には、月が出ていようとなかろうと、夜であろうとなかろうと、気持ちいいことが大好きです。彼らは高い魅力と魔力を持ち、快感に耽ることで成長します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vampire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸血鬼</t>
   </si>
   <si>
     <t xml:space="preserve">demigod</t>
@@ -1173,10 +1179,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1185,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1199,10 +1205,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1211,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1225,10 +1231,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1237,7 +1243,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -1251,10 +1257,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -1263,7 +1269,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1277,10 +1283,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -1289,7 +1295,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
@@ -1303,10 +1309,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -1315,7 +1321,7 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -1329,10 +1335,10 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -1341,7 +1347,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -1355,10 +1361,10 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -1367,7 +1373,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -1381,10 +1387,10 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -1393,7 +1399,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1407,10 +1413,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -1419,7 +1425,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -1433,10 +1439,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -1445,7 +1451,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1459,10 +1465,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -1471,7 +1477,7 @@
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
@@ -1485,10 +1491,10 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -1497,7 +1503,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G15" t="s">
         <v>61</v>
@@ -1511,10 +1517,10 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
@@ -1523,7 +1529,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G16" t="s">
         <v>65</v>
@@ -1537,10 +1543,7 @@
         <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" t="s">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>67</v>
@@ -1548,141 +1551,141 @@
       <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="F17" t="s">
-        <v>345</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" t="s">
-        <v>70</v>
-      </c>
+      <c r="G17"/>
+      <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>347</v>
+      </c>
+      <c r="G18" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" t="s">
-        <v>257</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>346</v>
-      </c>
-      <c r="G18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
+        <v>348</v>
+      </c>
+      <c r="G19" t="s">
         <v>75</v>
       </c>
-      <c r="B19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>76</v>
-      </c>
-      <c r="F19" t="s">
-        <v>347</v>
-      </c>
-      <c r="G19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>349</v>
+      </c>
+      <c r="G20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" t="s">
-        <v>259</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
         <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" t="s">
-        <v>348</v>
-      </c>
-      <c r="G20" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>350</v>
+      </c>
+      <c r="G21" t="s">
         <v>84</v>
       </c>
-      <c r="B21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>85</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
         <v>87</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D23" t="s">
         <v>89</v>
@@ -1698,10 +1701,10 @@
         <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D24" t="s">
         <v>91</v>
@@ -1717,10 +1720,10 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D25" t="s">
         <v>93</v>
@@ -1736,10 +1739,10 @@
         <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D26" t="s">
         <v>95</v>
@@ -1755,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D27" t="s">
         <v>97</v>
@@ -1774,10 +1777,10 @@
         <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
@@ -1793,10 +1796,10 @@
         <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D29" t="s">
         <v>101</v>
@@ -1812,10 +1815,10 @@
         <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D30" t="s">
         <v>103</v>
@@ -1831,10 +1834,10 @@
         <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D31" t="s">
         <v>105</v>
@@ -1850,10 +1853,10 @@
         <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D32" t="s">
         <v>107</v>
@@ -1869,10 +1872,10 @@
         <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D33" t="s">
         <v>109</v>
@@ -1888,10 +1891,10 @@
         <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D34" t="s">
         <v>111</v>
@@ -1907,10 +1910,10 @@
         <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D35" t="s">
         <v>113</v>
@@ -1926,10 +1929,10 @@
         <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D36" t="s">
         <v>115</v>
@@ -1945,10 +1948,10 @@
         <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D37" t="s">
         <v>117</v>
@@ -1964,10 +1967,10 @@
         <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D38" t="s">
         <v>119</v>
@@ -1983,10 +1986,10 @@
         <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D39" t="s">
         <v>121</v>
@@ -2002,10 +2005,10 @@
         <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D40" t="s">
         <v>123</v>
@@ -2021,10 +2024,10 @@
         <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D41" t="s">
         <v>125</v>
@@ -2040,10 +2043,10 @@
         <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
         <v>127</v>
@@ -2059,10 +2062,10 @@
         <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D43" t="s">
         <v>129</v>
@@ -2078,10 +2081,10 @@
         <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D44" t="s">
         <v>131</v>
@@ -2097,10 +2100,10 @@
         <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D45" t="s">
         <v>133</v>
@@ -2116,10 +2119,10 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D46" t="s">
         <v>135</v>
@@ -2135,10 +2138,10 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D47" t="s">
         <v>137</v>
@@ -2154,10 +2157,10 @@
         <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D48" t="s">
         <v>139</v>
@@ -2173,10 +2176,10 @@
         <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D49" t="s">
         <v>141</v>
@@ -2192,10 +2195,10 @@
         <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C50" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D50" t="s">
         <v>143</v>
@@ -2211,10 +2214,10 @@
         <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C51" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D51" t="s">
         <v>145</v>
@@ -2230,10 +2233,10 @@
         <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D52" t="s">
         <v>147</v>
@@ -2249,10 +2252,10 @@
         <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D53" t="s">
         <v>149</v>
@@ -2268,10 +2271,10 @@
         <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D54" t="s">
         <v>151</v>
@@ -2287,10 +2290,10 @@
         <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C55" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D55" t="s">
         <v>153</v>
@@ -2306,10 +2309,10 @@
         <v>155</v>
       </c>
       <c r="B56" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D56" t="s">
         <v>155</v>
@@ -2325,10 +2328,10 @@
         <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C57" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D57" t="s">
         <v>157</v>
@@ -2344,10 +2347,10 @@
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C58" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D58" t="s">
         <v>159</v>
@@ -2363,10 +2366,10 @@
         <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D59" t="s">
         <v>161</v>
@@ -2382,10 +2385,10 @@
         <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D60" t="s">
         <v>163</v>
@@ -2401,10 +2404,10 @@
         <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -2420,10 +2423,10 @@
         <v>167</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C62" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D62" t="s">
         <v>167</v>
@@ -2439,10 +2442,10 @@
         <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C63" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D63" t="s">
         <v>169</v>
@@ -2458,10 +2461,10 @@
         <v>171</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C64" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D64" t="s">
         <v>171</v>
@@ -2477,10 +2480,10 @@
         <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C65" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D65" t="s">
         <v>173</v>
@@ -2496,10 +2499,10 @@
         <v>175</v>
       </c>
       <c r="B66" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C66" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D66" t="s">
         <v>175</v>
@@ -2515,10 +2518,10 @@
         <v>177</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C67" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D67" t="s">
         <v>177</v>
@@ -2534,10 +2537,10 @@
         <v>179</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D68" t="s">
         <v>179</v>
@@ -2553,10 +2556,10 @@
         <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C69" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D69" t="s">
         <v>181</v>
@@ -2572,10 +2575,10 @@
         <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C70" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D70" t="s">
         <v>183</v>
@@ -2591,10 +2594,10 @@
         <v>185</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C71" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D71" t="s">
         <v>185</v>
@@ -2610,10 +2613,10 @@
         <v>187</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C72" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D72" t="s">
         <v>187</v>
@@ -2629,10 +2632,10 @@
         <v>189</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C73" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D73" t="s">
         <v>189</v>
@@ -2648,10 +2651,10 @@
         <v>191</v>
       </c>
       <c r="B74" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C74" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D74" t="s">
         <v>191</v>
@@ -2667,10 +2670,10 @@
         <v>193</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D75" t="s">
         <v>193</v>
@@ -2686,10 +2689,10 @@
         <v>195</v>
       </c>
       <c r="B76" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C76" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D76" t="s">
         <v>195</v>
@@ -2705,10 +2708,10 @@
         <v>197</v>
       </c>
       <c r="B77" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C77" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D77" t="s">
         <v>197</v>
@@ -2724,10 +2727,10 @@
         <v>199</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C78" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D78" t="s">
         <v>199</v>
@@ -2743,10 +2746,10 @@
         <v>201</v>
       </c>
       <c r="B79" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C79" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D79" t="s">
         <v>201</v>
@@ -2762,10 +2765,10 @@
         <v>203</v>
       </c>
       <c r="B80" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D80" t="s">
         <v>203</v>
@@ -2781,10 +2784,10 @@
         <v>205</v>
       </c>
       <c r="B81" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D81" t="s">
         <v>205</v>
@@ -2800,10 +2803,10 @@
         <v>207</v>
       </c>
       <c r="B82" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D82" t="s">
         <v>207</v>
@@ -2819,10 +2822,10 @@
         <v>209</v>
       </c>
       <c r="B83" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C83" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D83" t="s">
         <v>209</v>
@@ -2838,29 +2841,29 @@
         <v>211</v>
       </c>
       <c r="B84" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D84" t="s">
+        <v>211</v>
+      </c>
+      <c r="E84" t="s">
         <v>212</v>
-      </c>
-      <c r="E84" t="s">
-        <v>213</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B85" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C85" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D85" t="s">
         <v>214</v>
@@ -2876,10 +2879,10 @@
         <v>216</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C86" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D86" t="s">
         <v>216</v>
@@ -2895,10 +2898,10 @@
         <v>218</v>
       </c>
       <c r="B87" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C87" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D87" t="s">
         <v>218</v>
@@ -2914,10 +2917,10 @@
         <v>220</v>
       </c>
       <c r="B88" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C88" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D88" t="s">
         <v>220</v>
@@ -2933,10 +2936,10 @@
         <v>222</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C89" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D89" t="s">
         <v>222</v>
@@ -2952,29 +2955,29 @@
         <v>224</v>
       </c>
       <c r="B90" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C90" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D90" t="s">
+        <v>224</v>
+      </c>
+      <c r="E90" t="s">
         <v>225</v>
-      </c>
-      <c r="E90" t="s">
-        <v>226</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C91" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D91" t="s">
         <v>227</v>
@@ -2984,6 +2987,25 @@
       </c>
       <c r="G91"/>
       <c r="H91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>229</v>
+      </c>
+      <c r="B92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" t="s">
+        <v>332</v>
+      </c>
+      <c r="D92" t="s">
+        <v>229</v>
+      </c>
+      <c r="E92" t="s">
+        <v>230</v>
+      </c>
+      <c r="G92"/>
+      <c r="H92"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>
